--- a/biology/Mycologie/Nectria/Nectria.xlsx
+++ b/biology/Mycologie/Nectria/Nectria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nectria est un genre de champignons ascomycètes. 
 Ils ont l'apparence de petites boules.
@@ -513,7 +525,9 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces du genre sont omniprésentes dans les zones tempérées froides d'Europe et d'Amérique du Nord. 
 Elles semblent avoir été introduites en Nouvelle-Zélande et en Australie, au moins depuis les années 1980. 
@@ -546,7 +560,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces de Nectria sont des saprophytes. Mais quelques espèces peuvent également se comporter en parasites aux dépens d'arbres affaiblis.
 </t>
@@ -577,7 +593,9 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces susceptibles de parasiter des plantes sont trouvées sur des arbres fruitiers (pommiers, par exemple) et quelques autres feuillus. 
 Deux espèces provoquent d'importants ravages dans les vergers (chancre nectrien, maladie du corail).
@@ -610,7 +628,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nectria cinnabarina
